--- a/1.Docs/Trimestre VIII/Lista de chequeo.xlsx
+++ b/1.Docs/Trimestre VIII/Lista de chequeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\GitHub\Desarrollo_Final_EntryMC\1.Docs\Trimestre VIII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10AA387-B30E-47EC-BFD6-AE6C87BAAC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D66F7-7D70-406A-8B53-71B859D7014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{667E8945-60E4-4C97-BA34-D21CDF9FDDEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Evaluación de requisitos del sistema frente a las características de calidad del producto</t>
   </si>
@@ -95,9 +95,6 @@
     <t>¿Se ha definido la forma para ser instalado o desinstalado de manera exitosa en determinado entorno?</t>
   </si>
   <si>
-    <t>¿Se ha definido cómo ser reemplazado por otro producto sof- tware teniendo en cuenta el mismo propósito y entorno del software?</t>
-  </si>
-  <si>
     <t>¿Se ha definido el sistema operativo que se va a utilizar? *móvil</t>
   </si>
   <si>
@@ -210,6 +207,24 @@
   </si>
   <si>
     <t>¿El sistema cuenta con la capacidad de ser modificado sin introducir defectos o degradar el desempeño?</t>
+  </si>
+  <si>
+    <t>¿Se ha definido cómo ser reemplazado por otro producto software teniendo en cuenta el mismo propósito y entorno del software?</t>
+  </si>
+  <si>
+    <t>Desarrollo basico del software</t>
+  </si>
+  <si>
+    <t>No se tuvo en cuenta al inicio del desarrollo del software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo fue creado para el proyecto </t>
+  </si>
+  <si>
+    <t>Software basico</t>
+  </si>
+  <si>
+    <t>Software basico y seguridad minima</t>
   </si>
 </sst>
 </file>
@@ -319,16 +334,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +344,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,45 +671,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602E8BC6-4F4F-46D0-A897-FAF35BC5F5DF}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="11" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14" style="8" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="9" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>41</v>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,12 +717,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -717,9 +732,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -729,22 +744,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,9 +770,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -767,44 +782,44 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,11 +829,11 @@
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>48</v>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,11 +843,11 @@
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>49</v>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,11 +857,11 @@
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>49</v>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -856,11 +871,11 @@
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>49</v>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,13 +883,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,35 +899,35 @@
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>41</v>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -922,10 +937,10 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="10"/>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -934,10 +949,10 @@
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="10"/>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -946,10 +961,10 @@
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="10"/>
+      <c r="C23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -958,10 +973,10 @@
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="10"/>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -970,105 +985,109 @@
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="10"/>
+      <c r="C25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>41</v>
+      <c r="D33" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,131 +1095,135 @@
         <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>48</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>51</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>41</v>
+      <c r="D44" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,13 +1231,13 @@
         <v>53</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1222,48 +1245,54 @@
         <v>54</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
